--- a/y/main_model_summary.xlsx
+++ b/y/main_model_summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\sherlock-final-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\sherlock-final-project\y\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBF9377-60F2-4A4E-961E-4425C6833FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEF60F5-0522-4FA9-9AA0-042E7C80BC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -3147,7 +3147,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -3201,7 +3201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3210,32 +3210,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000000000"/>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4425,7 +4410,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2507D34-9895-457C-8E54-9D9A005D1AFA}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2507D34-9895-457C-8E54-9D9A005D1AFA}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0">
@@ -4566,7 +4551,7 @@
     <dataField name="Average of test_mse" fld="3" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -4575,27 +4560,6 @@
     </format>
   </formats>
   <conditionalFormats count="2">
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="0" count="5" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
     <conditionalFormat priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
@@ -4624,6 +4588,27 @@
               <x v="17"/>
               <x v="18"/>
               <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="5" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+            <reference field="1" count="1">
+              <x v="3"/>
             </reference>
           </references>
         </pivotArea>
@@ -4931,8 +4916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20944258-D31F-4980-997D-A0E9CE0EB42B}">
   <dimension ref="A3:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5489,8 +5474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65:J65"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7540,7 +7525,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -7559,7 +7544,7 @@
       <c r="F65">
         <v>30</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="5" t="s">
         <v>72</v>
       </c>
       <c r="H65" t="s">
